--- a/result/evalutation_times.xlsx
+++ b/result/evalutation_times.xlsx
@@ -8,113 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF256698-F0FA-B246-B682-B666716C54AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8659E-0519-8347-A48B-4EA95BF36E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="20100" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$3:$F$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$3:$G$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$H$3:$H$14</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$I$3:$I$14</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$1:$J$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$3:$J$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$14</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$2:$D$14</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$E$2:$E$14</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$2:$F$14</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$G$2:$G$14</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$H$2:$H$14</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$I$2:$I$14</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$J$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$J$2:$J$14</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$2:$C$14</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$D$2:$D$14</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$E$2:$E$14</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$F$2:$F$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$14</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$G$2:$G$14</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$H$2:$H$14</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$I$2:$I$14</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$J$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$J$2:$J$14</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$3:$C$14</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$F$3:$F$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$G$3:$G$14</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$H$3:$H$14</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$I$3:$I$14</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$J$1:$J$2</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$J$3:$J$14</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$C$3:$C$14</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$F$3:$F$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$G$3:$G$14</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$H$3:$H$14</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$I$3:$I$14</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$J$1:$J$2</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$J$3:$J$14</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -130,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>lassoc_comp_phead</t>
   </si>
@@ -155,6 +55,22 @@
   <si>
     <t>stack_overflow</t>
   </si>
+  <si>
+    <t>lassoc_comp_replace</t>
+  </si>
+  <si>
+    <t>rassoc_comp_replace</t>
+  </si>
+  <si>
+    <t>lassoc_comp</t>
+  </si>
+  <si>
+    <t>rassoc_comp</t>
+  </si>
+  <si>
+    <t>stack_overflow
+when n &gt; 90000</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,16 +87,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,20 +142,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,582 +547,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE12618-E339-D745-ABCD-0762550117A2}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="12.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="K2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B3" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N3" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O3" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P3" s="16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="C4" s="15">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="D4" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I4" s="15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M4" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N4" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O4" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="P4" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>20</v>
       </c>
-      <c r="B5" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D5" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="D5" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I5" s="15">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L5" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N5" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O5" s="15">
         <v>0.502</v>
       </c>
-      <c r="J5" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="P5" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="C6" s="15">
         <v>17.433</v>
       </c>
-      <c r="D6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="D6" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L6" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N6" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O6" s="15">
         <v>17.78</v>
       </c>
-      <c r="J6" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="P6" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="B7" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N7" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="O7" s="15"/>
+      <c r="P7" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>100</v>
       </c>
-      <c r="B8" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="B8" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L8" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N8" s="14">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="O8" s="15"/>
+      <c r="P8" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>200</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E9" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E9" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G9" s="16">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K9" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L9" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N9" s="14">
         <v>0.19900000000000001</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="O9" s="15"/>
+      <c r="P9" s="16">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>500</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="14">
         <v>1.9E-2</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
         <v>1.9E-2</v>
       </c>
-      <c r="E10" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="E10" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="16">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K10" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L10" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M10" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N10" s="14">
         <v>2.972</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="O10" s="15"/>
+      <c r="P10" s="16">
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>1000</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="14">
         <v>0.06</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E11" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="E11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="16">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="14">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K11" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L11" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N11" s="14">
         <v>23.853000000000002</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="O11" s="15"/>
+      <c r="P11" s="16">
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>1500</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="14">
         <v>0.11799999999999999</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
         <v>0.127</v>
       </c>
-      <c r="E12" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="E12" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="16">
         <v>6.3E-2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="K12" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L12" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="M12" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="N12" s="14">
         <v>81.385000000000005</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="O12" s="15"/>
+      <c r="P12" s="16">
         <v>7.9370000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>2000</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E13" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="E13" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="16">
         <v>0.128</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="L13" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N13" s="14">
         <v>198.739</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="O13" s="15"/>
+      <c r="P13" s="16">
         <v>19.408999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>2500</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="14">
         <v>0.32200000000000001</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E14" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="16">
         <v>0.34899999999999998</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="14">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L14" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M14" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="14">
         <v>394.01499999999999</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="O14" s="15"/>
+      <c r="P14" s="16">
         <v>38.213999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>5000</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="14">
         <v>1.302</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
         <v>1.3879999999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="16">
         <v>1.383</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="H15" s="14">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K15" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16">
         <v>321.05</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>10000</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="14">
         <v>5.1079999999999997</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16">
         <v>5.7869999999999999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="16">
         <v>5.9470000000000001</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="H16" s="14">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K16" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>20000</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="14">
         <v>20.648</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
         <v>24.552</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="14">
         <v>0.01</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="15">
         <v>1.4E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="16">
         <v>30.122</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="H17" s="14">
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>30000</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="14">
         <v>48.265000000000001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16">
         <v>81.793999999999997</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="14">
         <v>1.6E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="15">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="16">
         <v>87.915000000000006</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="H18" s="14">
+        <v>12.522</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K18" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>40000</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="14">
         <v>83.712000000000003</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
         <v>169.70599999999999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="14">
         <v>1.9E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="15">
         <v>0.03</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="16">
         <v>186.21199999999999</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="H19" s="14">
+        <v>22.155999999999999</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K19" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>50000</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="14">
         <v>130.863</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14">
         <v>2.3E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="15">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="G20" s="16"/>
+      <c r="H20" s="14">
+        <v>34.86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="K20" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M20" s="16">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>100000</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="15">
         <v>7.8E-2</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="G21" s="16"/>
+      <c r="H21" s="14">
+        <v>141.06800000000001</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>120000</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14">
+        <v>206.06700000000001</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M21:M22"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
